--- a/src/form_responses2.xlsx
+++ b/src/form_responses2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slone\Desktop\Repos\CondecoAssistant\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD3E6A7-3FEB-406A-9A3B-45222CBACFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E402B0-CD5C-4356-BAC9-706908FEAEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Last modified time</t>
   </si>
   <si>
-    <t>What team are you on?</t>
-  </si>
-  <si>
     <t>What days are you coming in?</t>
   </si>
   <si>
@@ -60,34 +57,28 @@
     <t>Shaheer Lone</t>
   </si>
   <si>
-    <t>DTS</t>
+    <t>Monday;Wednesday;Thursday;</t>
   </si>
   <si>
     <t>Ilia Azari</t>
   </si>
   <si>
-    <t>iazari@hoopp.com</t>
+    <t>James Truong</t>
   </si>
   <si>
     <t>16-W100</t>
   </si>
   <si>
+    <t>16-W101</t>
+  </si>
+  <si>
     <t>16-W107</t>
   </si>
   <si>
-    <t>Tuesday;Thursday;Friday</t>
-  </si>
-  <si>
-    <t>Tuesday;Wednesday;Friday</t>
-  </si>
-  <si>
-    <t>16-W108</t>
-  </si>
-  <si>
-    <t>James Truong</t>
-  </si>
-  <si>
-    <t>Monday;Wednesday;Friday</t>
+    <t>Monday;Tuesday;Thursday;</t>
+  </si>
+  <si>
+    <t>Monday;Thursday;Friday</t>
   </si>
 </sst>
 </file>
@@ -97,18 +88,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,23 +120,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -192,18 +169,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I4" totalsRowShown="0">
-  <autoFilter ref="A1:I4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="What team are you on?" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="What days are you coming in?" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Choose a desk from the list below:" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H4" totalsRowShown="0">
+  <autoFilter ref="A1:H4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="What days are you coming in?" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Choose a desk from the list below:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -506,21 +482,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="1" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,101 +518,79 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45828.679293981499</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45828.679467592599</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45820.641759259299</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45820.642060185201</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45828.679293981499</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45828.679467592599</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45820.642233796301</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45820.642534722203</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>45820.642233796301</v>
+        <v>45828.679293981499</v>
       </c>
       <c r="C4" s="1">
-        <v>45820.642534722203</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>45828.679467592599</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{B914B496-3C25-4EB7-8175-140FF3D89739}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{38E10B67-C426-4FD9-A22E-1613A1D0C72D}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/form_responses2.xlsx
+++ b/src/form_responses2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slone\Desktop\Repos\CondecoAssistant\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E402B0-CD5C-4356-BAC9-706908FEAEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA639FF-8334-4E3C-A225-2E60EC442E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39405" yWindow="2940" windowWidth="19200" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Shaheer Lone</t>
   </si>
   <si>
-    <t>Monday;Wednesday;Thursday;</t>
-  </si>
-  <si>
     <t>Ilia Azari</t>
   </si>
   <si>
@@ -75,10 +72,13 @@
     <t>16-W107</t>
   </si>
   <si>
-    <t>Monday;Tuesday;Thursday;</t>
-  </si>
-  <si>
-    <t>Monday;Thursday;Friday</t>
+    <t>Tuesday;Thursday;</t>
+  </si>
+  <si>
+    <t>Wednesday;Thursday;</t>
+  </si>
+  <si>
+    <t>Thursday;Friday</t>
   </si>
 </sst>
 </file>
@@ -485,15 +485,15 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3</v>
       </c>
@@ -537,13 +537,13 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4</v>
       </c>
@@ -554,17 +554,17 @@
         <v>45828.679467592599</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5</v>
       </c>
@@ -575,14 +575,14 @@
         <v>45828.679467592599</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
